--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H2">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I2">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J2">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N2">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O2">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P2">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q2">
-        <v>56.50092099200001</v>
+        <v>232.719890683573</v>
       </c>
       <c r="R2">
-        <v>508.5082889280001</v>
+        <v>2094.479016152157</v>
       </c>
       <c r="S2">
-        <v>4.425665912187721E-05</v>
+        <v>0.0001313138186507667</v>
       </c>
       <c r="T2">
-        <v>4.8898721538705E-05</v>
+        <v>0.0001473497823719092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H3">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I3">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J3">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.013562</v>
       </c>
       <c r="O3">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P3">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q3">
-        <v>95.29739876115001</v>
+        <v>118.070753213862</v>
       </c>
       <c r="R3">
-        <v>857.6765888503501</v>
+        <v>1062.636778924758</v>
       </c>
       <c r="S3">
-        <v>7.464558839263846E-05</v>
+        <v>6.662224457885115E-05</v>
       </c>
       <c r="T3">
-        <v>8.247513285746625E-05</v>
+        <v>7.475811259384549E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H4">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I4">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J4">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N4">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O4">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P4">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q4">
-        <v>56140.94435783524</v>
+        <v>87344.19948788288</v>
       </c>
       <c r="R4">
-        <v>505268.4992205171</v>
+        <v>786097.7953909459</v>
       </c>
       <c r="S4">
-        <v>0.04397469268822692</v>
+        <v>0.04928457270265399</v>
       </c>
       <c r="T4">
-        <v>0.04858717976406816</v>
+        <v>0.05530317476595751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H5">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I5">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J5">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N5">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O5">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P5">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q5">
-        <v>23.3983283273625</v>
+        <v>365.0792387391785</v>
       </c>
       <c r="R5">
-        <v>140.389969964175</v>
+        <v>2190.475432435071</v>
       </c>
       <c r="S5">
-        <v>1.832769842729585E-05</v>
+        <v>0.0002059985023546609</v>
       </c>
       <c r="T5">
-        <v>1.350005535323212E-05</v>
+        <v>0.0001541032761709337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H6">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I6">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J6">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N6">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O6">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P6">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q6">
-        <v>34041.13420686388</v>
+        <v>38062.83329853031</v>
       </c>
       <c r="R6">
-        <v>306370.207861775</v>
+        <v>342565.4996867728</v>
       </c>
       <c r="S6">
-        <v>0.02666411177489586</v>
+        <v>0.02147721870449632</v>
       </c>
       <c r="T6">
-        <v>0.02946089927770928</v>
+        <v>0.02410000359884404</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>218.277179</v>
       </c>
       <c r="I7">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J7">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N7">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O7">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P7">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q7">
-        <v>273.4033230866489</v>
+        <v>908.9091564774462</v>
       </c>
       <c r="R7">
-        <v>2460.62990777984</v>
+        <v>8180.182408297017</v>
       </c>
       <c r="S7">
-        <v>0.0002141543440388788</v>
+        <v>0.0005128583199017694</v>
       </c>
       <c r="T7">
-        <v>0.0002366169033822223</v>
+        <v>0.0005754882662130814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>218.277179</v>
       </c>
       <c r="I8">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J8">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.013562</v>
       </c>
       <c r="O8">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P8">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q8">
         <v>461.1362973446219</v>
@@ -948,10 +948,10 @@
         <v>4150.226676101598</v>
       </c>
       <c r="S8">
-        <v>0.0003612038806092236</v>
+        <v>0.0002601993664784409</v>
       </c>
       <c r="T8">
-        <v>0.0003990904041800816</v>
+        <v>0.0002919747549637119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>218.277179</v>
       </c>
       <c r="I9">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J9">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N9">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O9">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P9">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q9">
-        <v>271661.4256753105</v>
+        <v>341130.8867778407</v>
       </c>
       <c r="R9">
-        <v>2444952.831077795</v>
+        <v>3070177.981000567</v>
       </c>
       <c r="S9">
-        <v>0.2127899315902783</v>
+        <v>0.1924854780179843</v>
       </c>
       <c r="T9">
-        <v>0.235109378284037</v>
+        <v>0.2159916876009401</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>218.277179</v>
       </c>
       <c r="I10">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J10">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N10">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O10">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P10">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q10">
-        <v>113.2225918986198</v>
+        <v>1425.850888616275</v>
       </c>
       <c r="R10">
-        <v>679.335551391719</v>
+        <v>8555.10533169765</v>
       </c>
       <c r="S10">
-        <v>8.868622965034714E-05</v>
+        <v>0.0008045462915130542</v>
       </c>
       <c r="T10">
-        <v>6.532566072595472E-05</v>
+        <v>0.0006018646637531319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>218.277179</v>
       </c>
       <c r="I11">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J11">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N11">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O11">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P11">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q11">
-        <v>164722.2567418495</v>
+        <v>148657.9320954916</v>
       </c>
       <c r="R11">
-        <v>1482500.310676646</v>
+        <v>1337921.388859425</v>
       </c>
       <c r="S11">
-        <v>0.1290254501770436</v>
+        <v>0.0838812732287146</v>
       </c>
       <c r="T11">
-        <v>0.1425588755409357</v>
+        <v>0.0941248033323992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H12">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I12">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J12">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N12">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O12">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P12">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q12">
-        <v>122.0191929124978</v>
+        <v>453.120105548864</v>
       </c>
       <c r="R12">
-        <v>1098.17273621248</v>
+        <v>4078.080949939776</v>
       </c>
       <c r="S12">
-        <v>9.557652746615583E-05</v>
+        <v>0.0002556761744442491</v>
       </c>
       <c r="T12">
-        <v>0.0001056015093532824</v>
+        <v>0.000286899193467499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H13">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I13">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J13">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.013562</v>
       </c>
       <c r="O13">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P13">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q13">
-        <v>205.803931676484</v>
+        <v>229.891102137216</v>
       </c>
       <c r="R13">
-        <v>1852.235385088356</v>
+        <v>2069.019919234944</v>
       </c>
       <c r="S13">
-        <v>0.0001612043536677551</v>
+        <v>0.0001297176550177975</v>
       </c>
       <c r="T13">
-        <v>0.000178113010724975</v>
+        <v>0.0001455586962062294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H14">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I14">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J14">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N14">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O14">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P14">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q14">
-        <v>121241.7886224976</v>
+        <v>170064.5904171704</v>
       </c>
       <c r="R14">
-        <v>1091176.097602478</v>
+        <v>1530581.313754534</v>
       </c>
       <c r="S14">
-        <v>0.09496759373448631</v>
+        <v>0.0959601292324497</v>
       </c>
       <c r="T14">
-        <v>0.1049287048178466</v>
+        <v>0.1076787218897863</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H15">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I15">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J15">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N15">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O15">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P15">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q15">
-        <v>50.53094866206968</v>
+        <v>710.8319907906879</v>
       </c>
       <c r="R15">
-        <v>303.185691972418</v>
+        <v>4264.991944744128</v>
       </c>
       <c r="S15">
-        <v>3.95804339252972E-05</v>
+        <v>0.0004010919000334533</v>
       </c>
       <c r="T15">
-        <v>2.915467269478077E-05</v>
+        <v>0.0003000486660546894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H16">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I16">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J16">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N16">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O16">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P16">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q16">
-        <v>73515.11530822076</v>
+        <v>74110.70446560795</v>
       </c>
       <c r="R16">
-        <v>661636.0377739868</v>
+        <v>666996.3401904716</v>
       </c>
       <c r="S16">
-        <v>0.05758372326288436</v>
+        <v>0.04181748099697068</v>
       </c>
       <c r="T16">
-        <v>0.06362365584892792</v>
+        <v>0.04692420635967167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H17">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I17">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J17">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N17">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O17">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P17">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q17">
-        <v>227.1676321186133</v>
+        <v>1059.207557924293</v>
       </c>
       <c r="R17">
-        <v>1363.00579271168</v>
+        <v>6355.245347545755</v>
       </c>
       <c r="S17">
-        <v>0.0001779383465204219</v>
+        <v>0.0005976652393838971</v>
       </c>
       <c r="T17">
-        <v>0.0001310681500471809</v>
+        <v>0.0004471011701045019</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H18">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I18">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J18">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.013562</v>
       </c>
       <c r="O18">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P18">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q18">
-        <v>383.152770672516</v>
+        <v>537.390395838495</v>
       </c>
       <c r="R18">
-        <v>2298.916624035096</v>
+        <v>3224.34237503097</v>
       </c>
       <c r="S18">
-        <v>0.0003001200912398806</v>
+        <v>0.0003032262724794283</v>
       </c>
       <c r="T18">
-        <v>0.0002210663745056645</v>
+        <v>0.0002268373870492018</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H19">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I19">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J19">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N19">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O19">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P19">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q19">
-        <v>225720.3098773915</v>
+        <v>397540.7343423227</v>
       </c>
       <c r="R19">
-        <v>1354321.859264349</v>
+        <v>2385244.406053936</v>
       </c>
       <c r="S19">
-        <v>0.1768046721316745</v>
+        <v>0.2243151272647328</v>
       </c>
       <c r="T19">
-        <v>0.1302330933671868</v>
+        <v>0.1678055695117685</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H20">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I20">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J20">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N20">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O20">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P20">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q20">
-        <v>94.075330956347</v>
+        <v>1661.631447909066</v>
       </c>
       <c r="R20">
-        <v>376.301323825388</v>
+        <v>6646.525791636264</v>
       </c>
       <c r="S20">
-        <v>7.368835376156678E-05</v>
+        <v>0.0009375871137367449</v>
       </c>
       <c r="T20">
-        <v>3.618555301659805E-05</v>
+        <v>0.0004675931920894152</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H21">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I21">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J21">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N21">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O21">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P21">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q21">
-        <v>136865.8017716228</v>
+        <v>173240.2012883102</v>
       </c>
       <c r="R21">
-        <v>821194.8106297372</v>
+        <v>1039441.207729861</v>
       </c>
       <c r="S21">
-        <v>0.1072057415720139</v>
+        <v>0.09775198977695831</v>
       </c>
       <c r="T21">
-        <v>0.0789670045667608</v>
+        <v>0.07312626890326546</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H22">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I22">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J22">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N22">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O22">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P22">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q22">
-        <v>119.2147622884978</v>
+        <v>616.1552358487977</v>
       </c>
       <c r="R22">
-        <v>1072.93286059648</v>
+        <v>5545.39712263918</v>
       </c>
       <c r="S22">
-        <v>9.337984238601536E-05</v>
+        <v>0.000347669881862318</v>
       </c>
       <c r="T22">
-        <v>0.0001031744148962378</v>
+        <v>0.0003901271165217221</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H23">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I23">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J23">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.013562</v>
       </c>
       <c r="O23">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P23">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q23">
-        <v>201.073832789934</v>
+        <v>312.607197346314</v>
       </c>
       <c r="R23">
-        <v>1809.664495109406</v>
+        <v>2813.464776116826</v>
       </c>
       <c r="S23">
-        <v>0.0001574993100975015</v>
+        <v>0.0001763907876575669</v>
       </c>
       <c r="T23">
-        <v>0.0001740193466883002</v>
+        <v>0.0001979315234360552</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H24">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I24">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J24">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N24">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O24">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P24">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q24">
-        <v>118455.2254859482</v>
+        <v>231254.7744733009</v>
       </c>
       <c r="R24">
-        <v>1066097.029373534</v>
+        <v>2081292.970259708</v>
       </c>
       <c r="S24">
-        <v>0.09278490409526229</v>
+        <v>0.1304871166281211</v>
       </c>
       <c r="T24">
-        <v>0.1025170737776474</v>
+        <v>0.1464221240007273</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H25">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I25">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J25">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N25">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O25">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P25">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q25">
-        <v>49.36956956665716</v>
+        <v>966.5932885586227</v>
       </c>
       <c r="R25">
-        <v>296.217417399943</v>
+        <v>5799.559731351736</v>
       </c>
       <c r="S25">
-        <v>3.867073621002946E-05</v>
+        <v>0.00054540699305938</v>
       </c>
       <c r="T25">
-        <v>2.848459567667942E-05</v>
+        <v>0.0004080078423690855</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H26">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I26">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J26">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N26">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O26">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P26">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q26">
-        <v>71825.47914708736</v>
+        <v>100776.1474932012</v>
       </c>
       <c r="R26">
-        <v>646429.3123237863</v>
+        <v>906985.3274388108</v>
       </c>
       <c r="S26">
-        <v>0.05626024657771908</v>
+        <v>0.05686364288576574</v>
       </c>
       <c r="T26">
-        <v>0.06216136024923873</v>
+        <v>0.06380779639327491</v>
       </c>
     </row>
   </sheetData>
